--- a/EXEL.xlsx
+++ b/EXEL.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Ратова профиль\Ratova_project_bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7845"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="stickers" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ключевая фраза</t>
   </si>
@@ -39,16 +34,34 @@
     <t>пока</t>
   </si>
   <si>
-    <t>AAMCAgADGQEAA0FiAjKHkuGXC_TOMN_cB6LRVE8GvAACoBAAArz9yEs5DNFqvw_84wEAB20AAyME</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAM-YgIyNa3mN-Kd_8Q8ruV5nfW9O_QAAt0SAALZ36FLhz6MisthUiAjBA</t>
+    <t>как дела?</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANZYhKp4H4SJJwrTOqu6UEiq9EtqZ0AAhMBAAJSiZEjgGq_p-zb_zwjBA</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANhYhKrDYXggOZJnoRRnorQLIi9TG4AAh4JAAIYQu4I-VjZ7h0hnCEjBA</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANeYhKq-3BVuhgAAXmf_WK95nib4jAFAAKOAAMWQmsKvqSGfW1-LVwjBA</t>
+  </si>
+  <si>
+    <t>удачи</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANkYhKrPLhmoae0e9K8m5jF2H45Wn0AAs8AA_cCyA-5-Dj7pxiu_SME</t>
+  </si>
+  <si>
+    <t>знаешь?</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANnYhKrQE9zIKlx04LT4nLcNTCrMIYAAs4AA_cCyA9cmEfgzKtuiiME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -184,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -361,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -369,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -398,7 +411,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/EXEL.xlsx
+++ b/EXEL.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\ратова\telega_bot-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ключевая фраза</t>
   </si>
@@ -34,9 +38,6 @@
     <t>пока</t>
   </si>
   <si>
-    <t>как дела?</t>
-  </si>
-  <si>
     <t>CAACAgIAAxkBAANZYhKp4H4SJJwrTOqu6UEiq9EtqZ0AAhMBAAJSiZEjgGq_p-zb_zwjBA</t>
   </si>
   <si>
@@ -52,16 +53,28 @@
     <t>CAACAgIAAxkBAANkYhKrPLhmoae0e9K8m5jF2H45Wn0AAs8AA_cCyA-5-Dj7pxiu_SME</t>
   </si>
   <si>
-    <t>знаешь?</t>
-  </si>
-  <si>
     <t>CAACAgIAAxkBAANnYhKrQE9zIKlx04LT4nLcNTCrMIYAAs4AA_cCyA9cmEfgzKtuiiME</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>Приятно познакомиться с живым человеком, я - бот!</t>
+  </si>
+  <si>
+    <t>жаль расстоваться, человек)</t>
+  </si>
+  <si>
+    <t>знаешь</t>
+  </si>
+  <si>
+    <t>как дела</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -197,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -374,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -385,17 +398,23 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -403,7 +422,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -411,47 +433,38 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>